--- a/Code/Results/Cases/Case_0_78/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_78/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.570889774676155</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14.63752217307488</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11.05559156358623</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>69.08624386597081</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.866199850505056</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.375132347606137</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>65.06579199303616</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8.668558702431394</v>
+      </c>
+      <c r="D3">
+        <v>14.93484787222395</v>
+      </c>
+      <c r="E3">
+        <v>10.61392194821065</v>
+      </c>
+      <c r="F3">
+        <v>69.69604584233198</v>
+      </c>
+      <c r="G3">
+        <v>3.883593480608858</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>9.031162565154432</v>
+      </c>
+      <c r="M3">
+        <v>62.56090258492437</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>8.73208599526189</v>
+      </c>
+      <c r="D4">
+        <v>15.12927420851232</v>
+      </c>
+      <c r="E4">
+        <v>10.33612719502821</v>
+      </c>
+      <c r="F4">
+        <v>70.13959955084704</v>
+      </c>
+      <c r="G4">
+        <v>3.89464194620249</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>8.814148375796318</v>
+      </c>
+      <c r="M4">
+        <v>60.98460370479079</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>8.758861240130559</v>
+      </c>
+      <c r="D5">
+        <v>15.21140047117829</v>
+      </c>
+      <c r="E5">
+        <v>10.22139072900842</v>
+      </c>
+      <c r="F5">
+        <v>70.3370170648446</v>
+      </c>
+      <c r="G5">
+        <v>3.899239201759669</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>8.724335696271615</v>
+      </c>
+      <c r="M5">
+        <v>60.33330694988916</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>8.763360649489726</v>
+      </c>
+      <c r="D6">
+        <v>15.22520999474469</v>
+      </c>
+      <c r="E6">
+        <v>10.20225036207985</v>
+      </c>
+      <c r="F6">
+        <v>70.37078418776476</v>
+      </c>
+      <c r="G6">
+        <v>3.900008367655503</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>8.709341861651179</v>
+      </c>
+      <c r="M6">
+        <v>60.22464136265874</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>8.732443511583286</v>
+      </c>
+      <c r="D7">
+        <v>15.13037017556465</v>
+      </c>
+      <c r="E7">
+        <v>10.33458584199312</v>
+      </c>
+      <c r="F7">
+        <v>70.14219544234811</v>
+      </c>
+      <c r="G7">
+        <v>3.894703559248203</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>8.812942588330499</v>
+      </c>
+      <c r="M7">
+        <v>60.97585532247829</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>8.603822724788076</v>
+      </c>
+      <c r="D8">
+        <v>14.73752081569268</v>
+      </c>
+      <c r="E8">
+        <v>10.9047469752</v>
+      </c>
+      <c r="F8">
+        <v>69.28171467965889</v>
+      </c>
+      <c r="G8">
+        <v>3.8721220096816</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>9.257785802872649</v>
+      </c>
+      <c r="M8">
+        <v>64.21043512705431</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>8.38022535420429</v>
+      </c>
+      <c r="D9">
+        <v>14.06584142451167</v>
+      </c>
+      <c r="E9">
+        <v>11.96567189857698</v>
+      </c>
+      <c r="F9">
+        <v>68.17636413810905</v>
+      </c>
+      <c r="G9">
+        <v>3.830659628151513</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>10.08084890745503</v>
+      </c>
+      <c r="M9">
+        <v>70.22428669826046</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>8.234056438521712</v>
+      </c>
+      <c r="D10">
+        <v>13.6398034835732</v>
+      </c>
+      <c r="E10">
+        <v>12.70520965141597</v>
+      </c>
+      <c r="F10">
+        <v>67.76693850469132</v>
+      </c>
+      <c r="G10">
+        <v>3.801759650996862</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>10.65212648426566</v>
+      </c>
+      <c r="M10">
+        <v>74.41452079433941</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>8.171673756438423</v>
+      </c>
+      <c r="D11">
+        <v>13.46256498764665</v>
+      </c>
+      <c r="E11">
+        <v>13.03223518319999</v>
+      </c>
+      <c r="F11">
+        <v>67.67891873195525</v>
+      </c>
+      <c r="G11">
+        <v>3.788914206982688</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>10.90425511956285</v>
+      </c>
+      <c r="M11">
+        <v>76.26714795445706</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>8.148660521911431</v>
+      </c>
+      <c r="D12">
+        <v>13.3980215729218</v>
+      </c>
+      <c r="E12">
+        <v>13.15467830725683</v>
+      </c>
+      <c r="F12">
+        <v>67.66063397696256</v>
+      </c>
+      <c r="G12">
+        <v>3.784089969212877</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>10.99858626143693</v>
+      </c>
+      <c r="M12">
+        <v>76.96075428076526</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>8.153589388605385</v>
+      </c>
+      <c r="D13">
+        <v>13.4118044183777</v>
+      </c>
+      <c r="E13">
+        <v>13.12837054799402</v>
+      </c>
+      <c r="F13">
+        <v>67.66388785359609</v>
+      </c>
+      <c r="G13">
+        <v>3.785127228575996</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>10.97832164877289</v>
+      </c>
+      <c r="M13">
+        <v>76.81173015807883</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>8.169768106978433</v>
+      </c>
+      <c r="D14">
+        <v>13.4572022161493</v>
+      </c>
+      <c r="E14">
+        <v>13.04233679703186</v>
+      </c>
+      <c r="F14">
+        <v>67.67710753413726</v>
+      </c>
+      <c r="G14">
+        <v>3.788516530957025</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>10.91203887767366</v>
+      </c>
+      <c r="M14">
+        <v>76.32437170568534</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>8.179758045845102</v>
+      </c>
+      <c r="D15">
+        <v>13.48535083119202</v>
+      </c>
+      <c r="E15">
+        <v>12.98945600287082</v>
+      </c>
+      <c r="F15">
+        <v>67.68719214051103</v>
+      </c>
+      <c r="G15">
+        <v>3.790597691219066</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>10.87128897692305</v>
+      </c>
+      <c r="M15">
+        <v>76.02481009304114</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>8.238217538042388</v>
+      </c>
+      <c r="D16">
+        <v>13.65173555371568</v>
+      </c>
+      <c r="E16">
+        <v>12.68364469247371</v>
+      </c>
+      <c r="F16">
+        <v>67.77474570690391</v>
+      </c>
+      <c r="G16">
+        <v>3.802604919671994</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>10.63549056659975</v>
+      </c>
+      <c r="M16">
+        <v>74.29234736794302</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>8.275145732722651</v>
+      </c>
+      <c r="D17">
+        <v>13.75817857524774</v>
+      </c>
+      <c r="E17">
+        <v>12.49359788906352</v>
+      </c>
+      <c r="F17">
+        <v>67.85426473422062</v>
+      </c>
+      <c r="G17">
+        <v>3.810045883096306</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>10.4888268223821</v>
+      </c>
+      <c r="M17">
+        <v>73.21562842072839</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>8.296771459723418</v>
+      </c>
+      <c r="D18">
+        <v>13.82094844996544</v>
+      </c>
+      <c r="E18">
+        <v>12.38340547212505</v>
+      </c>
+      <c r="F18">
+        <v>67.90919135118193</v>
+      </c>
+      <c r="G18">
+        <v>3.814354298295796</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>10.40374160620919</v>
+      </c>
+      <c r="M18">
+        <v>72.59129935612559</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>8.304159262214537</v>
+      </c>
+      <c r="D19">
+        <v>13.84246148673629</v>
+      </c>
+      <c r="E19">
+        <v>12.3459461967134</v>
+      </c>
+      <c r="F19">
+        <v>67.92933912014375</v>
+      </c>
+      <c r="G19">
+        <v>3.815818056323239</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>10.37480923542459</v>
+      </c>
+      <c r="M19">
+        <v>72.37905726686851</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>8.271174627924593</v>
+      </c>
+      <c r="D20">
+        <v>13.74668615873651</v>
+      </c>
+      <c r="E20">
+        <v>12.51392039329815</v>
+      </c>
+      <c r="F20">
+        <v>67.84484212603361</v>
+      </c>
+      <c r="G20">
+        <v>3.809250845898196</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>10.50451503365325</v>
+      </c>
+      <c r="M20">
+        <v>73.33076946791378</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>8.164999314631638</v>
+      </c>
+      <c r="D21">
+        <v>13.44379631105385</v>
+      </c>
+      <c r="E21">
+        <v>13.06764511480439</v>
+      </c>
+      <c r="F21">
+        <v>67.67280879779078</v>
+      </c>
+      <c r="G21">
+        <v>3.787519950994445</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>10.93153899146897</v>
+      </c>
+      <c r="M21">
+        <v>76.46773786895656</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>8.099172312765667</v>
+      </c>
+      <c r="D22">
+        <v>13.26094422117542</v>
+      </c>
+      <c r="E22">
+        <v>13.42139845287014</v>
+      </c>
+      <c r="F22">
+        <v>67.64851804719025</v>
+      </c>
+      <c r="G22">
+        <v>3.773549311038594</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>11.20394517290236</v>
+      </c>
+      <c r="M22">
+        <v>78.47156554899641</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>8.133972344801059</v>
+      </c>
+      <c r="D23">
+        <v>13.35708425183433</v>
+      </c>
+      <c r="E23">
+        <v>13.23334903710416</v>
+      </c>
+      <c r="F23">
+        <v>67.65310802510115</v>
+      </c>
+      <c r="G23">
+        <v>3.780985647013754</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>11.05917561153906</v>
+      </c>
+      <c r="M23">
+        <v>77.40638937528229</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>8.27296873477175</v>
+      </c>
+      <c r="D24">
+        <v>13.75187699053878</v>
+      </c>
+      <c r="E24">
+        <v>12.50473548857425</v>
+      </c>
+      <c r="F24">
+        <v>67.84907346942207</v>
+      </c>
+      <c r="G24">
+        <v>3.809610186950513</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>10.49742477771077</v>
+      </c>
+      <c r="M24">
+        <v>73.27873071733966</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>8.437588589362981</v>
+      </c>
+      <c r="D25">
+        <v>14.23629215612621</v>
+      </c>
+      <c r="E25">
+        <v>11.68537124775308</v>
+      </c>
+      <c r="F25">
+        <v>68.4082428041268</v>
+      </c>
+      <c r="G25">
+        <v>3.841589971462638</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>9.863854453152204</v>
+      </c>
+      <c r="M25">
+        <v>68.63578754140227</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
